--- a/reportes/reporte_ventas_20250510_20250513.xlsx
+++ b/reportes/reporte_ventas_20250510_20250513.xlsx
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>24000000</v>
+        <v>28000000</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/reporte_ventas_20250510_20250513.xlsx
+++ b/reportes/reporte_ventas_20250510_20250513.xlsx
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>28000000</v>
+        <v>32000000</v>
       </c>
     </row>
   </sheetData>
